--- a/Question_Sets/Programming skills/Machine Learning in Google Cloud Platform (GCP).xlsx
+++ b/Question_Sets/Programming skills/Machine Learning in Google Cloud Platform (GCP).xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are a machine learning (ML) engineer in a multinational company dealing with a huge dataset for a business analytics project. The dataset is stored in Google Cloud Storage (GCS), and you need to apply preprocessing on it. The task takes several hours on a single machine, so you are planning to integrate parallelization.&amp;#160Which GCP service should you use?', 'ques_type': 2, 'options': ['Cloud Functions', 'Dataflow', 'Bigtable', 'Pub/Sub'], 'score': 'Dataflow'}, {'title': "You are a machine learning (ML) engineer at an insurance company, and you have been tasked with developing a model to predict whether a claim is fraudulent based on several features. Given the sensitive nature of the data, your company has strict rules around data privacy, and raw data cannot leave your local servers. However, you want to take advantage of Google Cloud AutoML's capabilities. Which GCP service should you use?", 'ques_type': 2, 'options': ['AutoML Tables', 'AutoML Vision', 'AutoML On-Prem', 'AutoML Edge'], 'score': 'AutoML On-Prem'}, {'title': 'You are working as a machine learning engineer for a financial firm and have developed a model that predicts stock prices. The model needs to be updated frequently due to fast-changing market trends and should support a high volume of requests during peak trading hours. Which GCP service should you use to deploy the model?', 'ques_type': 2, 'options': ['Google Cloud Functions', 'Google Cloud Run', 'Google Vertex AI ', 'Google Kubernetes Engine'], 'score': 'Google Cloud Run'}, {'title': 'You are working as a machine learning (ML) engineer in a software company and are responsible for building, deploying, and managing models. Your team follows agile development practices and needs to integrate the ML workflows into the CI/CD pipeline. Which GCP service should you use for integration?', 'ques_type': 2, 'options': ['Cloud Build', 'Cloud Functions', 'Cloud Composer', 'Cloud Source Repositories'], 'score': 'Cloud Build'}]</t>
+    <t>questions = [
+    {
+        "title": "You are a machine learning (ML) engineer in a multinational company dealing with a huge dataset for a business analytics project. The dataset is stored in Google Cloud Storage (GCS), and you need to apply preprocessing on it. The task takes several hours on a single machine, so you are planning to integrate parallelization.&amp;#160Which GCP service should you use?",
+        "ques_type": 2,
+        "options": [
+            "Cloud Functions",
+            "Dataflow",
+            "Bigtable",
+            "Pub/Sub"
+        ],
+        "score": "Dataflow"
+    },
+    {
+        "title": "You are a machine learning (ML) engineer at an insurance company, and you have been tasked with developing a model to predict whether a claim is fraudulent based on several features. Given the sensitive nature of the data, your company has strict rules around data privacy, and raw data cannot leave your local servers. However, you want to take advantage of Google Cloud AutoML's capabilities. Which GCP service should you use?",
+        "ques_type": 2,
+        "options": [
+            "AutoML Tables",
+            "AutoML Vision",
+            "AutoML On-Prem",
+            "AutoML Edge"
+        ],
+        "score": "AutoML On-Prem"
+    },
+    {
+        "title": "You are working as a machine learning engineer for a financial firm and have developed a model that predicts stock prices. The model needs to be updated frequently due to fast-changing market trends and should support a high volume of requests during peak trading hours. Which GCP service should you use to deploy the model?",
+        "ques_type": 2,
+        "options": [
+            "Google Cloud Functions",
+            "Google Cloud Run",
+            "Google Vertex AI ",
+            "Google Kubernetes Engine"
+        ],
+        "score": "Google Cloud Run"
+    },
+    {
+        "title": "You are working as a machine learning (ML) engineer in a software company and are responsible for building, deploying, and managing models. Your team follows agile development practices and needs to integrate the ML workflows into the CI/CD pipeline. Which GCP service should you use for integration?",
+        "ques_type": 2,
+        "options": [
+            "Cloud Build",
+            "Cloud Functions",
+            "Cloud Composer",
+            "Cloud Source Repositories"
+        ],
+        "score": "Cloud Build"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
